--- a/fsdviz/tests/xls_files/too_many_records.xlsx
+++ b/fsdviz/tests/xls_files/too_many_records.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\COTTRILLAD\1work\LakeTrout\Stocking\GLFSD_Datavis\fsdviz\fsdviz\tests\xls_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\1work\fsdviz\fsdviz\tests\xls_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49696C8F-64E4-493E-A621-28E1AC900F09}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC7CB5E-12E8-4EE8-91A8-03733B101419}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25080" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{66746BF4-E993-4514-B1BB-F83EE9B8B0C5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{66746BF4-E993-4514-B1BB-F83EE9B8B0C5}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA_TEMPLATE" sheetId="2" r:id="rId1"/>
@@ -198,9 +198,6 @@
     <t>Enter\paste your data below:</t>
   </si>
   <si>
-    <t>OMNR</t>
-  </si>
-  <si>
     <t>HU</t>
   </si>
   <si>
@@ -325,6 +322,9 @@
   </si>
   <si>
     <t>Kincardine Dock</t>
+  </si>
+  <si>
+    <t>MNRF</t>
   </si>
 </sst>
 </file>
@@ -929,7 +929,7 @@
   <dimension ref="A1:AH56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:A31"/>
+      <selection activeCell="C31" sqref="C10:C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1458,26 +1458,26 @@
         <v>52701</v>
       </c>
       <c r="C10" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="57" t="s">
+      <c r="E10" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="57" t="s">
+      <c r="F10" s="57" t="s">
         <v>57</v>
-      </c>
-      <c r="F10" s="57" t="s">
-        <v>58</v>
       </c>
       <c r="G10" s="57"/>
       <c r="H10" s="56">
         <v>1128</v>
       </c>
       <c r="I10" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" s="57" t="s">
         <v>59</v>
-      </c>
-      <c r="J10" s="57" t="s">
-        <v>60</v>
       </c>
       <c r="K10" s="56">
         <v>44.566400000000002</v>
@@ -1501,7 +1501,7 @@
         <v>47</v>
       </c>
       <c r="R10" s="57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S10" s="56">
         <v>2018</v>
@@ -1513,7 +1513,7 @@
         <v>16</v>
       </c>
       <c r="V10" s="57" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W10" s="58"/>
       <c r="X10" s="57"/>
@@ -1531,7 +1531,7 @@
         <v>380</v>
       </c>
       <c r="AF10" s="57" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AG10" s="56">
         <v>30747</v>
@@ -1544,26 +1544,26 @@
         <v>52703</v>
       </c>
       <c r="C11" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="57" t="s">
+      <c r="E11" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="57" t="s">
+      <c r="F11" s="57" t="s">
         <v>57</v>
-      </c>
-      <c r="F11" s="57" t="s">
-        <v>58</v>
       </c>
       <c r="G11" s="57"/>
       <c r="H11" s="56">
         <v>1128</v>
       </c>
       <c r="I11" s="57" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J11" s="57" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K11" s="56">
         <v>44.567509999999999</v>
@@ -1587,7 +1587,7 @@
         <v>47</v>
       </c>
       <c r="R11" s="57" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="S11" s="56">
         <v>2018</v>
@@ -1599,7 +1599,7 @@
         <v>16</v>
       </c>
       <c r="V11" s="57" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W11" s="58"/>
       <c r="X11" s="57"/>
@@ -1614,10 +1614,10 @@
         <v>0</v>
       </c>
       <c r="AE11" s="57" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AF11" s="57" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AG11" s="56">
         <v>10849</v>
@@ -1630,26 +1630,26 @@
         <v>52715</v>
       </c>
       <c r="C12" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="57" t="s">
+      <c r="E12" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="57" t="s">
-        <v>57</v>
-      </c>
       <c r="F12" s="57" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G12" s="57"/>
       <c r="H12" s="56">
         <v>1619</v>
       </c>
       <c r="I12" s="57" t="s">
+        <v>67</v>
+      </c>
+      <c r="J12" s="57" t="s">
         <v>68</v>
-      </c>
-      <c r="J12" s="57" t="s">
-        <v>69</v>
       </c>
       <c r="K12" s="56">
         <v>43.803100000000001</v>
@@ -1667,25 +1667,25 @@
         <v>13</v>
       </c>
       <c r="P12" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q12" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="Q12" s="57" t="s">
+      <c r="R12" s="57" t="s">
         <v>71</v>
-      </c>
-      <c r="R12" s="57" t="s">
-        <v>72</v>
       </c>
       <c r="S12" s="56">
         <v>2019</v>
       </c>
       <c r="T12" s="57" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="U12" s="56">
         <v>2</v>
       </c>
       <c r="V12" s="57" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W12" s="58"/>
       <c r="X12" s="57"/>
@@ -1701,7 +1701,7 @@
         <v>10778</v>
       </c>
       <c r="AF12" s="57" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AG12" s="56">
         <v>9000</v>
@@ -1714,26 +1714,26 @@
         <v>53116</v>
       </c>
       <c r="C13" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="57" t="s">
+      <c r="E13" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="E13" s="57" t="s">
-        <v>57</v>
-      </c>
       <c r="F13" s="57" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G13" s="57"/>
       <c r="H13" s="56">
         <v>1220</v>
       </c>
       <c r="I13" s="57" t="s">
+        <v>76</v>
+      </c>
+      <c r="J13" s="57" t="s">
         <v>77</v>
-      </c>
-      <c r="J13" s="57" t="s">
-        <v>78</v>
       </c>
       <c r="K13" s="56">
         <v>44.3489</v>
@@ -1751,13 +1751,13 @@
         <v>25</v>
       </c>
       <c r="P13" s="57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q13" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="R13" s="57" t="s">
         <v>79</v>
-      </c>
-      <c r="R13" s="57" t="s">
-        <v>80</v>
       </c>
       <c r="S13" s="56">
         <v>2019</v>
@@ -1769,7 +1769,7 @@
         <v>10</v>
       </c>
       <c r="V13" s="57" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W13" s="58"/>
       <c r="X13" s="57"/>
@@ -1787,7 +1787,7 @@
         <v>10793</v>
       </c>
       <c r="AF13" s="57" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AG13" s="56">
         <v>3763</v>
@@ -1800,26 +1800,26 @@
         <v>53019</v>
       </c>
       <c r="C14" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="57" t="s">
+      <c r="E14" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="57" t="s">
+      <c r="F14" s="57" t="s">
         <v>57</v>
-      </c>
-      <c r="F14" s="57" t="s">
-        <v>58</v>
       </c>
       <c r="G14" s="57"/>
       <c r="H14" s="56">
         <v>1124</v>
       </c>
       <c r="I14" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="J14" s="57" t="s">
         <v>81</v>
-      </c>
-      <c r="J14" s="57" t="s">
-        <v>82</v>
       </c>
       <c r="K14" s="56">
         <v>44.543799999999997</v>
@@ -1837,19 +1837,19 @@
         <v>5</v>
       </c>
       <c r="P14" s="57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q14" s="57" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R14" s="57" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S14" s="56">
         <v>2019</v>
       </c>
       <c r="T14" s="57" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U14" s="56">
         <v>8</v>
@@ -1873,7 +1873,7 @@
         <v>10783</v>
       </c>
       <c r="AF14" s="57" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AG14" s="56">
         <v>70000</v>
@@ -1886,26 +1886,26 @@
         <v>53020</v>
       </c>
       <c r="C15" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="57" t="s">
+      <c r="E15" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="57" t="s">
-        <v>57</v>
-      </c>
       <c r="F15" s="57" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G15" s="57"/>
       <c r="H15" s="56">
         <v>1221</v>
       </c>
       <c r="I15" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="J15" s="57" t="s">
         <v>85</v>
-      </c>
-      <c r="J15" s="57" t="s">
-        <v>86</v>
       </c>
       <c r="K15" s="56">
         <v>44.499000000000002</v>
@@ -1923,25 +1923,25 @@
         <v>19</v>
       </c>
       <c r="P15" s="57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q15" s="57" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R15" s="57" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S15" s="56">
         <v>2019</v>
       </c>
       <c r="T15" s="57" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U15" s="56">
         <v>6</v>
       </c>
       <c r="V15" s="57" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W15" s="58"/>
       <c r="X15" s="57"/>
@@ -1959,7 +1959,7 @@
         <v>10782</v>
       </c>
       <c r="AF15" s="57" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AG15" s="56">
         <v>13939</v>
@@ -1972,26 +1972,26 @@
         <v>53021</v>
       </c>
       <c r="C16" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="57" t="s">
+      <c r="E16" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="E16" s="57" t="s">
-        <v>57</v>
-      </c>
       <c r="F16" s="57" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G16" s="57"/>
       <c r="H16" s="56">
         <v>1221</v>
       </c>
       <c r="I16" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="J16" s="57" t="s">
         <v>85</v>
-      </c>
-      <c r="J16" s="57" t="s">
-        <v>86</v>
       </c>
       <c r="K16" s="56">
         <v>44.499000000000002</v>
@@ -2009,25 +2009,25 @@
         <v>19</v>
       </c>
       <c r="P16" s="57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q16" s="57" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R16" s="57" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S16" s="56">
         <v>2019</v>
       </c>
       <c r="T16" s="57" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U16" s="56">
         <v>6</v>
       </c>
       <c r="V16" s="57" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W16" s="58"/>
       <c r="X16" s="57"/>
@@ -2045,7 +2045,7 @@
         <v>10782</v>
       </c>
       <c r="AF16" s="57" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AG16" s="56">
         <v>11955</v>
@@ -2058,26 +2058,26 @@
         <v>53022</v>
       </c>
       <c r="C17" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="57" t="s">
+      <c r="E17" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="E17" s="57" t="s">
-        <v>57</v>
-      </c>
       <c r="F17" s="57" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G17" s="57"/>
       <c r="H17" s="56">
         <v>1320</v>
       </c>
       <c r="I17" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="J17" s="57" t="s">
         <v>87</v>
-      </c>
-      <c r="J17" s="57" t="s">
-        <v>88</v>
       </c>
       <c r="K17" s="56">
         <v>44.1736</v>
@@ -2095,25 +2095,25 @@
         <v>19</v>
       </c>
       <c r="P17" s="57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q17" s="57" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R17" s="57" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S17" s="56">
         <v>2019</v>
       </c>
       <c r="T17" s="57" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U17" s="56">
         <v>6</v>
       </c>
       <c r="V17" s="57" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W17" s="58"/>
       <c r="X17" s="57"/>
@@ -2131,7 +2131,7 @@
         <v>10782</v>
       </c>
       <c r="AF17" s="57" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AG17" s="56">
         <v>11528</v>
@@ -2144,26 +2144,26 @@
         <v>53023</v>
       </c>
       <c r="C18" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="57" t="s">
+      <c r="E18" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="57" t="s">
-        <v>57</v>
-      </c>
       <c r="F18" s="57" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G18" s="57"/>
       <c r="H18" s="56">
         <v>1221</v>
       </c>
       <c r="I18" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="J18" s="57" t="s">
         <v>85</v>
-      </c>
-      <c r="J18" s="57" t="s">
-        <v>86</v>
       </c>
       <c r="K18" s="56">
         <v>44.499000000000002</v>
@@ -2181,25 +2181,25 @@
         <v>19</v>
       </c>
       <c r="P18" s="57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q18" s="57" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R18" s="57" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S18" s="56">
         <v>2019</v>
       </c>
       <c r="T18" s="57" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U18" s="56">
         <v>6</v>
       </c>
       <c r="V18" s="57" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W18" s="58"/>
       <c r="X18" s="57"/>
@@ -2217,7 +2217,7 @@
         <v>10782</v>
       </c>
       <c r="AF18" s="57" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AG18" s="56">
         <v>10850</v>
@@ -2230,23 +2230,23 @@
         <v>53025</v>
       </c>
       <c r="C19" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="57" t="s">
+      <c r="E19" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="E19" s="57" t="s">
-        <v>57</v>
-      </c>
       <c r="F19" s="59" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G19" s="57"/>
       <c r="H19" s="56">
         <v>921</v>
       </c>
       <c r="I19" s="57" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J19" s="57"/>
       <c r="K19" s="56">
@@ -2265,25 +2265,25 @@
         <v>19</v>
       </c>
       <c r="P19" s="57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q19" s="57" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R19" s="57" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S19" s="56">
         <v>2019</v>
       </c>
       <c r="T19" s="57" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U19" s="56">
         <v>6</v>
       </c>
       <c r="V19" s="57" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W19" s="58"/>
       <c r="X19" s="57"/>
@@ -2301,7 +2301,7 @@
         <v>10782</v>
       </c>
       <c r="AF19" s="57" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AG19" s="56">
         <v>12190</v>
@@ -2314,26 +2314,26 @@
         <v>53065</v>
       </c>
       <c r="C20" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="57" t="s">
+      <c r="E20" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="E20" s="57" t="s">
-        <v>57</v>
-      </c>
       <c r="F20" s="57" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G20" s="57"/>
       <c r="H20" s="56">
         <v>923</v>
       </c>
       <c r="I20" s="57" t="s">
+        <v>90</v>
+      </c>
+      <c r="J20" s="57" t="s">
         <v>91</v>
-      </c>
-      <c r="J20" s="57" t="s">
-        <v>92</v>
       </c>
       <c r="K20" s="56">
         <v>44.960999999999999</v>
@@ -2351,13 +2351,13 @@
         <v>28</v>
       </c>
       <c r="P20" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q20" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="Q20" s="57" t="s">
+      <c r="R20" s="57" t="s">
         <v>71</v>
-      </c>
-      <c r="R20" s="57" t="s">
-        <v>72</v>
       </c>
       <c r="S20" s="56">
         <v>2018</v>
@@ -2387,7 +2387,7 @@
         <v>10787</v>
       </c>
       <c r="AF20" s="57" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AG20" s="56">
         <v>5210</v>
@@ -2400,26 +2400,26 @@
         <v>53105</v>
       </c>
       <c r="C21" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="57" t="s">
+      <c r="E21" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="E21" s="57" t="s">
-        <v>57</v>
-      </c>
       <c r="F21" s="57" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G21" s="57"/>
       <c r="H21" s="56">
         <v>1220</v>
       </c>
       <c r="I21" s="57" t="s">
+        <v>76</v>
+      </c>
+      <c r="J21" s="57" t="s">
         <v>77</v>
-      </c>
-      <c r="J21" s="57" t="s">
-        <v>78</v>
       </c>
       <c r="K21" s="56">
         <v>44.3489</v>
@@ -2437,13 +2437,13 @@
         <v>20</v>
       </c>
       <c r="P21" s="57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q21" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="R21" s="57" t="s">
         <v>79</v>
-      </c>
-      <c r="R21" s="57" t="s">
-        <v>80</v>
       </c>
       <c r="S21" s="56">
         <v>2018</v>
@@ -2455,7 +2455,7 @@
         <v>17</v>
       </c>
       <c r="V21" s="57" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W21" s="58"/>
       <c r="X21" s="57"/>
@@ -2473,7 +2473,7 @@
         <v>10791</v>
       </c>
       <c r="AF21" s="57" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AG21" s="56">
         <v>600</v>
@@ -2486,26 +2486,26 @@
         <v>53106</v>
       </c>
       <c r="C22" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="D22" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="D22" s="57" t="s">
+      <c r="E22" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="E22" s="57" t="s">
-        <v>57</v>
-      </c>
       <c r="F22" s="57" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G22" s="57"/>
       <c r="H22" s="56">
         <v>1220</v>
       </c>
       <c r="I22" s="57" t="s">
+        <v>76</v>
+      </c>
+      <c r="J22" s="57" t="s">
         <v>77</v>
-      </c>
-      <c r="J22" s="57" t="s">
-        <v>78</v>
       </c>
       <c r="K22" s="56">
         <v>44.3489</v>
@@ -2523,13 +2523,13 @@
         <v>20</v>
       </c>
       <c r="P22" s="57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q22" s="57" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R22" s="57" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S22" s="56">
         <v>2018</v>
@@ -2541,7 +2541,7 @@
         <v>17</v>
       </c>
       <c r="V22" s="57" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W22" s="58"/>
       <c r="X22" s="57"/>
@@ -2559,7 +2559,7 @@
         <v>10795</v>
       </c>
       <c r="AF22" s="57" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AG22" s="56">
         <v>600</v>
@@ -2572,26 +2572,26 @@
         <v>53071</v>
       </c>
       <c r="C23" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="D23" s="57" t="s">
+      <c r="E23" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="E23" s="57" t="s">
-        <v>57</v>
-      </c>
       <c r="F23" s="57" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G23" s="57"/>
       <c r="H23" s="56">
         <v>923</v>
       </c>
       <c r="I23" s="57" t="s">
+        <v>90</v>
+      </c>
+      <c r="J23" s="57" t="s">
         <v>91</v>
-      </c>
-      <c r="J23" s="57" t="s">
-        <v>92</v>
       </c>
       <c r="K23" s="56">
         <v>44.960999999999999</v>
@@ -2609,25 +2609,25 @@
         <v>15</v>
       </c>
       <c r="P23" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q23" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="Q23" s="57" t="s">
+      <c r="R23" s="57" t="s">
         <v>71</v>
-      </c>
-      <c r="R23" s="57" t="s">
-        <v>72</v>
       </c>
       <c r="S23" s="56">
         <v>2019</v>
       </c>
       <c r="T23" s="57" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U23" s="56">
         <v>6</v>
       </c>
       <c r="V23" s="57" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W23" s="58"/>
       <c r="X23" s="57"/>
@@ -2645,7 +2645,7 @@
         <v>10790</v>
       </c>
       <c r="AF23" s="57" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AG23" s="56">
         <v>5000</v>
@@ -2658,23 +2658,23 @@
         <v>53072</v>
       </c>
       <c r="C24" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="D24" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="D24" s="57" t="s">
+      <c r="E24" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="E24" s="57" t="s">
+      <c r="F24" s="57" t="s">
         <v>57</v>
-      </c>
-      <c r="F24" s="57" t="s">
-        <v>58</v>
       </c>
       <c r="G24" s="57"/>
       <c r="H24" s="56">
         <v>1023</v>
       </c>
       <c r="I24" s="57" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J24" s="57"/>
       <c r="K24" s="56">
@@ -2693,25 +2693,25 @@
         <v>16</v>
       </c>
       <c r="P24" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q24" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="Q24" s="57" t="s">
+      <c r="R24" s="57" t="s">
         <v>71</v>
-      </c>
-      <c r="R24" s="57" t="s">
-        <v>72</v>
       </c>
       <c r="S24" s="56">
         <v>2019</v>
       </c>
       <c r="T24" s="57" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U24" s="56">
         <v>6</v>
       </c>
       <c r="V24" s="57" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W24" s="58"/>
       <c r="X24" s="57"/>
@@ -2729,7 +2729,7 @@
         <v>10790</v>
       </c>
       <c r="AF24" s="57" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AG24" s="56">
         <v>10450</v>
@@ -2742,23 +2742,23 @@
         <v>53073</v>
       </c>
       <c r="C25" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="57" t="s">
+      <c r="E25" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="E25" s="57" t="s">
-        <v>57</v>
-      </c>
       <c r="F25" s="57" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G25" s="57"/>
       <c r="H25" s="56">
         <v>1121</v>
       </c>
       <c r="I25" s="57" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J25" s="57"/>
       <c r="K25" s="56">
@@ -2777,13 +2777,13 @@
         <v>25</v>
       </c>
       <c r="P25" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q25" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="Q25" s="57" t="s">
+      <c r="R25" s="57" t="s">
         <v>71</v>
-      </c>
-      <c r="R25" s="57" t="s">
-        <v>72</v>
       </c>
       <c r="S25" s="56">
         <v>2018</v>
@@ -2813,7 +2813,7 @@
         <v>10785</v>
       </c>
       <c r="AF25" s="57" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AG25" s="56">
         <v>3100</v>
@@ -2826,23 +2826,23 @@
         <v>53074</v>
       </c>
       <c r="C26" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="D26" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="57" t="s">
+      <c r="E26" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="E26" s="57" t="s">
-        <v>57</v>
-      </c>
       <c r="F26" s="57" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G26" s="57"/>
       <c r="H26" s="56">
         <v>1121</v>
       </c>
       <c r="I26" s="57" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J26" s="57"/>
       <c r="K26" s="56">
@@ -2861,13 +2861,13 @@
         <v>25</v>
       </c>
       <c r="P26" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q26" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="Q26" s="57" t="s">
+      <c r="R26" s="57" t="s">
         <v>71</v>
-      </c>
-      <c r="R26" s="57" t="s">
-        <v>72</v>
       </c>
       <c r="S26" s="56">
         <v>2018</v>
@@ -2897,7 +2897,7 @@
         <v>10785</v>
       </c>
       <c r="AF26" s="57" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AG26" s="56">
         <v>3047</v>
@@ -2910,26 +2910,26 @@
         <v>53075</v>
       </c>
       <c r="C27" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="D27" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="57" t="s">
+      <c r="E27" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="E27" s="57" t="s">
-        <v>57</v>
-      </c>
       <c r="F27" s="57" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G27" s="57"/>
       <c r="H27" s="56">
         <v>1121</v>
       </c>
       <c r="I27" s="57" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J27" s="57" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K27" s="56">
         <v>44.130200000000002</v>
@@ -2947,13 +2947,13 @@
         <v>25</v>
       </c>
       <c r="P27" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q27" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="Q27" s="57" t="s">
+      <c r="R27" s="57" t="s">
         <v>71</v>
-      </c>
-      <c r="R27" s="57" t="s">
-        <v>72</v>
       </c>
       <c r="S27" s="56">
         <v>2018</v>
@@ -2983,7 +2983,7 @@
         <v>10785</v>
       </c>
       <c r="AF27" s="57" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AG27" s="56">
         <v>3057</v>
@@ -2996,26 +2996,26 @@
         <v>53076</v>
       </c>
       <c r="C28" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="D28" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="D28" s="57" t="s">
+      <c r="E28" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="E28" s="57" t="s">
-        <v>57</v>
-      </c>
       <c r="F28" s="57" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G28" s="57"/>
       <c r="H28" s="56">
         <v>1121</v>
       </c>
       <c r="I28" s="57" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J28" s="57" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K28" s="56">
         <v>44.130200000000002</v>
@@ -3033,13 +3033,13 @@
         <v>25</v>
       </c>
       <c r="P28" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q28" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="Q28" s="57" t="s">
+      <c r="R28" s="57" t="s">
         <v>71</v>
-      </c>
-      <c r="R28" s="57" t="s">
-        <v>72</v>
       </c>
       <c r="S28" s="56">
         <v>2019</v>
@@ -3069,7 +3069,7 @@
         <v>10789</v>
       </c>
       <c r="AF28" s="57" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AG28" s="56">
         <v>3057</v>
@@ -3082,26 +3082,26 @@
         <v>53077</v>
       </c>
       <c r="C29" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="D29" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="D29" s="57" t="s">
+      <c r="E29" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="E29" s="57" t="s">
-        <v>57</v>
-      </c>
       <c r="F29" s="57" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G29" s="57"/>
       <c r="H29" s="56">
         <v>1121</v>
       </c>
       <c r="I29" s="57" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J29" s="57" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K29" s="56">
         <v>44.130200000000002</v>
@@ -3119,13 +3119,13 @@
         <v>25</v>
       </c>
       <c r="P29" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q29" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="Q29" s="57" t="s">
+      <c r="R29" s="57" t="s">
         <v>71</v>
-      </c>
-      <c r="R29" s="57" t="s">
-        <v>72</v>
       </c>
       <c r="S29" s="56">
         <v>2018</v>
@@ -3155,7 +3155,7 @@
         <v>10785</v>
       </c>
       <c r="AF29" s="57" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AG29" s="56">
         <v>3057</v>
@@ -3168,26 +3168,26 @@
         <v>53100</v>
       </c>
       <c r="C30" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="D30" s="57" t="s">
+      <c r="E30" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="E30" s="57" t="s">
-        <v>57</v>
-      </c>
       <c r="F30" s="57" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G30" s="57"/>
       <c r="H30" s="56">
         <v>1220</v>
       </c>
       <c r="I30" s="57" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J30" s="57" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K30" s="56">
         <v>44.376199999999997</v>
@@ -3205,13 +3205,13 @@
         <v>16</v>
       </c>
       <c r="P30" s="57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q30" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="R30" s="57" t="s">
         <v>79</v>
-      </c>
-      <c r="R30" s="57" t="s">
-        <v>80</v>
       </c>
       <c r="S30" s="56">
         <v>2018</v>
@@ -3223,7 +3223,7 @@
         <v>16</v>
       </c>
       <c r="V30" s="57" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W30" s="58"/>
       <c r="X30" s="57"/>
@@ -3241,7 +3241,7 @@
         <v>10791</v>
       </c>
       <c r="AF30" s="57" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AG30" s="56">
         <v>1275</v>
@@ -3254,26 +3254,26 @@
         <v>53113</v>
       </c>
       <c r="C31" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="D31" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="D31" s="57" t="s">
+      <c r="E31" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="E31" s="57" t="s">
-        <v>57</v>
-      </c>
       <c r="F31" s="57" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G31" s="57"/>
       <c r="H31" s="56">
         <v>1320</v>
       </c>
       <c r="I31" s="57" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J31" s="57" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K31" s="56">
         <v>44.177300000000002</v>
@@ -3291,13 +3291,13 @@
         <v>25</v>
       </c>
       <c r="P31" s="57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q31" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="R31" s="57" t="s">
         <v>79</v>
-      </c>
-      <c r="R31" s="57" t="s">
-        <v>80</v>
       </c>
       <c r="S31" s="56">
         <v>2019</v>
@@ -3309,7 +3309,7 @@
         <v>10</v>
       </c>
       <c r="V31" s="57" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W31" s="58"/>
       <c r="X31" s="57"/>
@@ -3327,7 +3327,7 @@
         <v>10793</v>
       </c>
       <c r="AF31" s="57" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AG31" s="56">
         <v>4000</v>
